--- a/RR/excel/NominationFlow/GenericNomination.xlsx
+++ b/RR/excel/NominationFlow/GenericNomination.xlsx
@@ -32,7 +32,7 @@
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A12" authorId="0">
+    <comment ref="A17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -50,11 +50,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="78">
   <si>
     <t xml:space="preserve">Driver count </t>
   </si>
   <si>
+    <t xml:space="preserve">no of Approvers </t>
+  </si>
+  <si>
     <t>Advantage Club - Testing</t>
   </si>
   <si>
@@ -70,9 +73,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Yes </t>
-  </si>
-  <si>
     <t xml:space="preserve">Nominator </t>
   </si>
   <si>
@@ -85,7 +85,13 @@
     <t>Manager 1</t>
   </si>
   <si>
-    <t>Approver</t>
+    <t>manager3.pearl@yopmail.com</t>
+  </si>
+  <si>
+    <t>Pearl!1307</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Approver</t>
   </si>
   <si>
     <t>manager2.pearl@yopmail.co</t>
@@ -94,9 +100,27 @@
     <t>Manager 2</t>
   </si>
   <si>
+    <t>manager4.pearl@yopmail.com</t>
+  </si>
+  <si>
+    <t>Manager 4</t>
+  </si>
+  <si>
+    <t>manager5.pearl@yopmail.com</t>
+  </si>
+  <si>
+    <t>Manager 5</t>
+  </si>
+  <si>
     <t>Admin</t>
   </si>
   <si>
+    <t>admin.pearl@ac.com</t>
+  </si>
+  <si>
+    <t>Advantage!1307</t>
+  </si>
+  <si>
     <t>admin</t>
   </si>
   <si>
@@ -106,13 +130,10 @@
     <t xml:space="preserve">Nominee </t>
   </si>
   <si>
-    <t>employee7.pearl@yomail.co</t>
-  </si>
-  <si>
-    <t>Pearl!1307</t>
-  </si>
-  <si>
-    <t>Employee 7</t>
+    <t>employee11.pearl@yopmail.com</t>
+  </si>
+  <si>
+    <t>Employee 11</t>
   </si>
   <si>
     <t xml:space="preserve">Budget and award details </t>
@@ -121,10 +142,28 @@
     <t>index</t>
   </si>
   <si>
+    <t xml:space="preserve">name </t>
+  </si>
+  <si>
     <t>Budget no.</t>
   </si>
   <si>
+    <t>INDIVIDUAL</t>
+  </si>
+  <si>
     <t xml:space="preserve">Award no. </t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ponits </t>
+  </si>
+  <si>
+    <t>testing single/multiple approver flow</t>
+  </si>
+  <si>
+    <t>single</t>
   </si>
   <si>
     <t>Custom Message Details</t>
@@ -257,7 +296,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,29 +327,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -802,150 +820,150 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -954,21 +972,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="6" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1294,10 +1308,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:I73"/>
+  <dimension ref="A2:I78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1317,35 +1331,38 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="I2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="16"/>
-    </row>
-    <row r="4" spans="2:7">
+        <v>3</v>
+      </c>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="2:6">
       <c r="B4" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="3"/>
-      <c r="G4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
@@ -1355,337 +1372,411 @@
       <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" t="s">
         <v>10</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="8"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="8"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="8"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="D13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="3:9">
-      <c r="C10" s="5"/>
-      <c r="I10" s="17"/>
-    </row>
-    <row r="11" spans="3:5">
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="3"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" ht="15.6" spans="9:9">
-      <c r="I14" s="18"/>
-    </row>
-    <row r="18" s="2" customFormat="1" spans="1:2">
-      <c r="A18" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5">
-      <c r="D19" s="3"/>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="8">
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9">
+      <c r="C15" s="5"/>
+      <c r="I15" s="13"/>
+    </row>
+    <row r="16" spans="3:5">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="3"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" ht="15.6" spans="9:9">
+      <c r="I19" s="14"/>
+    </row>
+    <row r="23" s="2" customFormat="1" spans="1:3">
+      <c r="A23" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5">
+      <c r="D24" s="3"/>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25">
         <v>1</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="5">
+      <c r="C25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="5">
         <v>2</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="5"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:1">
-      <c r="A25" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="C26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5" t="s">
-        <v>31</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B27" s="5">
+        <v>3</v>
+      </c>
+      <c r="D27" s="3"/>
       <c r="E27" s="5"/>
     </row>
-    <row r="29" s="2" customFormat="1" spans="1:1">
-      <c r="A29" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3">
+    <row r="28" spans="1:2">
+      <c r="A28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:1">
+      <c r="A30" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
       <c r="B31" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3">
-      <c r="B32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" s="1" customFormat="1" spans="1:1">
-      <c r="A36" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="E31" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="34" s="2" customFormat="1" spans="1:1">
+      <c r="A34" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="1" spans="1:1">
+      <c r="A41" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" s="3" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" s="1" customFormat="1" spans="1:1">
-      <c r="A49" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B50" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3">
-      <c r="B51" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C51" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>52</v>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" s="1" customFormat="1" spans="1:1">
+      <c r="A54" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="B55" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="3" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="71" spans="4:4">
-      <c r="D71" s="19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C72" t="s">
-        <v>62</v>
-      </c>
-      <c r="D72" s="20">
+        <v>70</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4">
+      <c r="D76" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C77" t="s">
+        <v>75</v>
+      </c>
+      <c r="D77" s="16">
         <v>1330</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C73" t="s">
-        <v>62</v>
+    <row r="78" spans="1:3">
+      <c r="A78" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C78" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId3" display="manager1.pearl@yopmail.co"/>
-    <hyperlink ref="B73" r:id="rId4" display="ph_approver1@yopmail.com" tooltip="mailto:ph_approver1@yopmail.com"/>
-    <hyperlink ref="B72" r:id="rId5" display="ph_requester1@yopmail.com"/>
-    <hyperlink ref="C31" r:id="rId6" display="manageractest2@yopmail.com"/>
-    <hyperlink ref="C53" r:id="rId7" display="employeeacte@yopmail.com"/>
-    <hyperlink ref="B9" r:id="rId8" display="employee7.pearl@yomail.co"/>
-    <hyperlink ref="B8" r:id="rId9" display="manager2.pearl@yopmail.co"/>
-    <hyperlink ref="B6" r:id="rId9" display="manager2.pearl@yopmail.co" tooltip="mailto:manager2.pearl@yopmail.co"/>
+    <hyperlink ref="B6" r:id="rId4" display="manager2.pearl@yopmail.co"/>
+    <hyperlink ref="B78" r:id="rId5" display="ph_approver1@yopmail.com" tooltip="mailto:ph_approver1@yopmail.com"/>
+    <hyperlink ref="B77" r:id="rId6" display="ph_requester1@yopmail.com"/>
+    <hyperlink ref="C36" r:id="rId7" display="manageractest2@yopmail.com"/>
+    <hyperlink ref="C58" r:id="rId8" display="employeeacte@yopmail.com"/>
+    <hyperlink ref="B14" r:id="rId9" display="employee11.pearl@yopmail.com"/>
+    <hyperlink ref="B13" r:id="rId4" display="manager2.pearl@yopmail.co"/>
+    <hyperlink ref="B12" r:id="rId10" display="admin.pearl@ac.com"/>
+    <hyperlink ref="B7" r:id="rId11" display="manager4.pearl@yopmail.com"/>
+    <hyperlink ref="B8" r:id="rId12" display="manager5.pearl@yopmail.com"/>
+    <hyperlink ref="E5" r:id="rId13" display="manager3.pearl@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
